--- a/DOWNSTREAM_ANALYSIS/COMPILED_DATA/GO_ANALYSIS_SGD_OUTPUT/RESULTS_EXCEL_FILES/Rapa_SC.xlsx
+++ b/DOWNSTREAM_ANALYSIS/COMPILED_DATA/GO_ANALYSIS_SGD_OUTPUT/RESULTS_EXCEL_FILES/Rapa_SC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://risecloud-my.sharepoint.com/personal/vaskar_mukherjee_processum_se/Documents/Post_Doc_Goteborg/P_drf_Syntox_20210429/GIT_SUB/Mixtox_transcriptomics/DOWNSTREAM_ANALYSIS/COMPILED_DATA/GO_ANALYSIS_SGD_OUTPUT/RESULTS_EXCEL_FILES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_D1EF93DF5BDA6296BEA437DE1390512AFBDF2F5B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26E0F8AF-FDDD-47EF-B4CB-ADB824EED61B}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_D1EF93DF5BDA6296BEA437DE1390512AFBDF2F5B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D25554E-BB9C-44D5-9DA5-FDD9AEE85E0F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RapavsCtrl" sheetId="1" r:id="rId1"/>
@@ -4560,7 +4560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A113" sqref="A113:XFD113"/>
     </sheetView>
   </sheetViews>
@@ -4569,7 +4569,7 @@
     <col min="1" max="1" width="55.25" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.08203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -11216,8 +11216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H191"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -11225,7 +11225,7 @@
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="23.08203125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="14.4140625" customWidth="1"/>
   </cols>
   <sheetData>
